--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -534,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N2">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q2">
-        <v>2.99271656259061</v>
+        <v>0.0175799026</v>
       </c>
       <c r="R2">
-        <v>2.99271656259061</v>
+        <v>0.1582191234</v>
       </c>
       <c r="S2">
-        <v>0.008698372303355646</v>
+        <v>3.652747078501009E-05</v>
       </c>
       <c r="T2">
-        <v>0.008698372303355646</v>
+        <v>3.652747078501009E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N3">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q3">
-        <v>6.407629778224444</v>
+        <v>0.051824806826</v>
       </c>
       <c r="R3">
-        <v>6.407629778224444</v>
+        <v>0.466423261434</v>
       </c>
       <c r="S3">
-        <v>0.01862386504949109</v>
+        <v>0.0001076814337569485</v>
       </c>
       <c r="T3">
-        <v>0.01862386504949109</v>
+        <v>0.0001076814337569485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>9.98925018056247</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>9.98925018056247</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J4">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N4">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q4">
-        <v>23.57148366641466</v>
+        <v>0.1165973424373333</v>
       </c>
       <c r="R4">
-        <v>23.57148366641466</v>
+        <v>1.049376081936</v>
       </c>
       <c r="S4">
-        <v>0.06851084504155532</v>
+        <v>0.0002422656209420359</v>
       </c>
       <c r="T4">
-        <v>0.06851084504155532</v>
+        <v>0.0002422656209420359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H5">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I5">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J5">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N5">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O5">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P5">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q5">
-        <v>50.46830780630492</v>
+        <v>1.087046005366667</v>
       </c>
       <c r="R5">
-        <v>50.46830780630492</v>
+        <v>9.783414048299999</v>
       </c>
       <c r="S5">
-        <v>0.1466868384086403</v>
+        <v>0.002258661046449304</v>
       </c>
       <c r="T5">
-        <v>0.1466868384086403</v>
+        <v>0.002258661046449304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H6">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J6">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N6">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q6">
-        <v>82.96989553123065</v>
+        <v>3.204565492820333</v>
       </c>
       <c r="R6">
-        <v>82.96989553123065</v>
+        <v>28.841089435383</v>
       </c>
       <c r="S6">
-        <v>0.2411531550707343</v>
+        <v>0.006658436914072901</v>
       </c>
       <c r="T6">
-        <v>0.2411531550707343</v>
+        <v>0.006658436914072901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.348859666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.046578999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02389749241860727</v>
+      </c>
+      <c r="J7">
+        <v>0.02389749241860726</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N7">
+        <v>16.035208</v>
+      </c>
+      <c r="O7">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P7">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q7">
+        <v>7.209748439270222</v>
+      </c>
+      <c r="R7">
+        <v>64.887735953432</v>
+      </c>
+      <c r="S7">
+        <v>0.01498039445808506</v>
+      </c>
+      <c r="T7">
+        <v>0.01498039445808506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.462627</v>
+      </c>
+      <c r="H8">
+        <v>55.387881</v>
+      </c>
+      <c r="I8">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J8">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N8">
+        <v>2.4177</v>
+      </c>
+      <c r="O8">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P8">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q8">
+        <v>14.8790310993</v>
+      </c>
+      <c r="R8">
+        <v>133.9112798937</v>
+      </c>
+      <c r="S8">
+        <v>0.03091560779119091</v>
+      </c>
+      <c r="T8">
+        <v>0.03091560779119091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.462627</v>
+      </c>
+      <c r="H9">
+        <v>55.387881</v>
+      </c>
+      <c r="I9">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J9">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.375759</v>
+      </c>
+      <c r="N9">
+        <v>7.127277</v>
+      </c>
+      <c r="O9">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P9">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q9">
+        <v>43.862752258893</v>
+      </c>
+      <c r="R9">
+        <v>394.764770330037</v>
+      </c>
+      <c r="S9">
+        <v>0.09113789980195051</v>
+      </c>
+      <c r="T9">
+        <v>0.09113789980195053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.462627</v>
+      </c>
+      <c r="H10">
+        <v>55.387881</v>
+      </c>
+      <c r="I10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N10">
+        <v>16.035208</v>
+      </c>
+      <c r="O10">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P10">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q10">
+        <v>98.68402139047201</v>
+      </c>
+      <c r="R10">
+        <v>888.156192514248</v>
+      </c>
+      <c r="S10">
+        <v>0.2050453742723112</v>
+      </c>
+      <c r="T10">
+        <v>0.2050453742723112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H11">
+        <v>107.809532</v>
+      </c>
+      <c r="I11">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J11">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.4177</v>
+      </c>
+      <c r="O11">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P11">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q11">
+        <v>28.96123394626667</v>
+      </c>
+      <c r="R11">
+        <v>260.6511055164</v>
+      </c>
+      <c r="S11">
+        <v>0.0601755681439383</v>
+      </c>
+      <c r="T11">
+        <v>0.0601755681439383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H12">
+        <v>107.809532</v>
+      </c>
+      <c r="I12">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J12">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.375759</v>
+      </c>
+      <c r="N12">
+        <v>7.127277</v>
+      </c>
+      <c r="O12">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P12">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q12">
+        <v>85.37648864492934</v>
+      </c>
+      <c r="R12">
+        <v>768.3883978043641</v>
+      </c>
+      <c r="S12">
+        <v>0.1773950212161245</v>
+      </c>
+      <c r="T12">
+        <v>0.1773950212161245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H13">
+        <v>107.809532</v>
+      </c>
+      <c r="I13">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J13">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N13">
+        <v>16.035208</v>
+      </c>
+      <c r="O13">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P13">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q13">
+        <v>192.0831411114063</v>
+      </c>
+      <c r="R13">
+        <v>1728.748270002656</v>
+      </c>
+      <c r="S13">
+        <v>0.3991097951384476</v>
+      </c>
+      <c r="T13">
+        <v>0.3991097951384476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.178527</v>
+      </c>
+      <c r="H14">
+        <v>0.535581</v>
+      </c>
+      <c r="I14">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J14">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.4177</v>
+      </c>
+      <c r="O14">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P14">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q14">
+        <v>0.1438749093</v>
+      </c>
+      <c r="R14">
+        <v>1.2948741837</v>
+      </c>
+      <c r="S14">
+        <v>0.0002989428704884705</v>
+      </c>
+      <c r="T14">
+        <v>0.0002989428704884705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.178527</v>
+      </c>
+      <c r="H15">
+        <v>0.535581</v>
+      </c>
+      <c r="I15">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J15">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.375759</v>
+      </c>
+      <c r="N15">
+        <v>7.127277</v>
+      </c>
+      <c r="O15">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P15">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q15">
+        <v>0.424137126993</v>
+      </c>
+      <c r="R15">
+        <v>3.817234142937</v>
+      </c>
+      <c r="S15">
+        <v>0.0008812708959533666</v>
+      </c>
+      <c r="T15">
+        <v>0.0008812708959533668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.178527</v>
+      </c>
+      <c r="H16">
+        <v>0.535581</v>
+      </c>
+      <c r="I16">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J16">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N16">
+        <v>16.035208</v>
+      </c>
+      <c r="O16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q16">
+        <v>0.9542391928720001</v>
+      </c>
+      <c r="R16">
+        <v>8.588152735848</v>
+      </c>
+      <c r="S16">
+        <v>0.001982715435496417</v>
+      </c>
+      <c r="T16">
+        <v>0.001982715435496417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="H7">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="I7">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="J7">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.05226187091684</v>
-      </c>
-      <c r="N7">
-        <v>5.05226187091684</v>
-      </c>
-      <c r="O7">
-        <v>0.6816376275843548</v>
-      </c>
-      <c r="P7">
-        <v>0.6816376275843548</v>
-      </c>
-      <c r="Q7">
-        <v>177.6447458966433</v>
-      </c>
-      <c r="R7">
-        <v>177.6447458966433</v>
-      </c>
-      <c r="S7">
-        <v>0.5163269241262234</v>
-      </c>
-      <c r="T7">
-        <v>0.5163269241262234</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.48568</v>
+      </c>
+      <c r="I17">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J17">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.4177</v>
+      </c>
+      <c r="O17">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P17">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q17">
+        <v>0.3991031706666667</v>
+      </c>
+      <c r="R17">
+        <v>3.591928536</v>
+      </c>
+      <c r="S17">
+        <v>0.0008292554138912898</v>
+      </c>
+      <c r="T17">
+        <v>0.0008292554138912899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.48568</v>
+      </c>
+      <c r="I18">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J18">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.375759</v>
+      </c>
+      <c r="N18">
+        <v>7.127277</v>
+      </c>
+      <c r="O18">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P18">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q18">
+        <v>1.176539210373333</v>
+      </c>
+      <c r="R18">
+        <v>10.58885289336</v>
+      </c>
+      <c r="S18">
+        <v>0.002444609769017194</v>
+      </c>
+      <c r="T18">
+        <v>0.002444609769017194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.48568</v>
+      </c>
+      <c r="I19">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J19">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.035208</v>
+      </c>
+      <c r="O19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q19">
+        <v>2.647020869048889</v>
+      </c>
+      <c r="R19">
+        <v>23.82318782144</v>
+      </c>
+      <c r="S19">
+        <v>0.005499972307098864</v>
+      </c>
+      <c r="T19">
+        <v>0.005499972307098864</v>
       </c>
     </row>
   </sheetData>
